--- a/form3/grs_atualizado_form3.xlsx
+++ b/form3/grs_atualizado_form3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="grs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41,7 +41,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -98,6 +98,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FF6400"/>
+        <bgColor rgb="00FF6400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00006400"/>
         <bgColor rgb="00006400"/>
       </patternFill>
@@ -129,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -140,13 +146,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -605,9 +614,13 @@
           <t>Paula Tatiana Santana Vechi</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n"/>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F2" s="3" t="n"/>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -615,7 +628,7 @@
       <c r="H2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -633,9 +646,13 @@
           <t>willian de oliveira lino</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n"/>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F3" s="3" t="n"/>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -661,9 +678,13 @@
           <t>Gisele Cássia Tamparowsky de Oliveira</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n"/>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F4" s="3" t="n"/>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -671,7 +692,7 @@
       <c r="H4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -689,9 +710,13 @@
           <t>Marcos Gabriel Franciosi Borges</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n"/>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F5" s="3" t="n"/>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -699,7 +724,7 @@
       <c r="H5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -717,9 +742,13 @@
           <t>Geni Rodrigues da Silva morais</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n"/>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F6" s="3" t="n"/>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -745,7 +774,7 @@
           <t>Solange Maria Masqueti</t>
         </is>
       </c>
-      <c r="E7" s="6" t="inlineStr">
+      <c r="E7" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -755,7 +784,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -763,7 +792,7 @@
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="inlineStr">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -781,9 +810,13 @@
           <t>Cristiane Petry Vieira</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n"/>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F8" s="3" t="n"/>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -791,7 +824,7 @@
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -809,9 +842,13 @@
           <t>Diego Hemerich</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n"/>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F9" s="3" t="n"/>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -819,7 +856,7 @@
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -837,7 +874,7 @@
           <t>Tatiane Girardi</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="7" t="inlineStr">
         <is>
           <t>Envio Duplicado</t>
         </is>
@@ -847,7 +884,7 @@
           <t>06/03/2025, 05/03/2025</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -855,7 +892,7 @@
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="inlineStr">
+      <c r="A11" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -873,9 +910,13 @@
           <t>Gabriela Fernanda Sandri</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n"/>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F11" s="3" t="n"/>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -883,7 +924,7 @@
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="inlineStr">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -901,9 +942,13 @@
           <t>Edson Batista de Castro</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n"/>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F12" s="3" t="n"/>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -911,7 +956,7 @@
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="inlineStr">
+      <c r="A13" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -929,9 +974,13 @@
           <t>Eduarda rohden donasolo</t>
         </is>
       </c>
-      <c r="E13" s="3" t="n"/>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F13" s="3" t="n"/>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -939,7 +988,7 @@
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="inlineStr">
+      <c r="A14" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -957,9 +1006,13 @@
           <t>Kelly Regina linzmeier de Lima</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n"/>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F14" s="3" t="n"/>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -967,7 +1020,7 @@
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -981,9 +1034,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F15" s="3" t="n"/>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -991,7 +1048,7 @@
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="inlineStr">
+      <c r="A16" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1005,9 +1062,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F16" s="3" t="n"/>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1015,7 +1076,7 @@
       <c r="H16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1033,7 +1094,7 @@
           <t>Cristina Harumi Enokida</t>
         </is>
       </c>
-      <c r="E17" s="6" t="inlineStr">
+      <c r="E17" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1043,7 +1104,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1051,7 +1112,7 @@
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1069,9 +1130,13 @@
           <t>Douglas de Mattia / Alvaro Rodrigues</t>
         </is>
       </c>
-      <c r="E18" s="3" t="n"/>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F18" s="3" t="n"/>
-      <c r="G18" s="4" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1079,7 +1144,7 @@
       <c r="H18" s="3" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1097,9 +1162,13 @@
           <t>Vanderson Pasetti</t>
         </is>
       </c>
-      <c r="E19" s="3" t="n"/>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F19" s="3" t="n"/>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1107,7 +1176,7 @@
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="inlineStr">
+      <c r="A20" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1125,7 +1194,7 @@
           <t>Bruna Schneider Guimarães</t>
         </is>
       </c>
-      <c r="E20" s="6" t="inlineStr">
+      <c r="E20" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1135,7 +1204,7 @@
           <t>19/03/2025</t>
         </is>
       </c>
-      <c r="G20" s="9" t="inlineStr">
+      <c r="G20" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1143,7 +1212,7 @@
       <c r="H20" s="3" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1161,7 +1230,7 @@
           <t>Keilla Avezedo</t>
         </is>
       </c>
-      <c r="E21" s="6" t="inlineStr">
+      <c r="E21" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1171,7 +1240,7 @@
           <t>10/03/2025</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1179,7 +1248,7 @@
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="inlineStr">
+      <c r="A22" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1193,9 +1262,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="3" t="n"/>
-      <c r="E22" s="3" t="n"/>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F22" s="3" t="n"/>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1203,7 +1276,7 @@
       <c r="H22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="inlineStr">
+      <c r="A23" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1221,9 +1294,13 @@
           <t>thiago varaschim cenci</t>
         </is>
       </c>
-      <c r="E23" s="3" t="n"/>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F23" s="3" t="n"/>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1231,7 +1308,7 @@
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="inlineStr">
+      <c r="A24" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1249,9 +1326,13 @@
           <t>Andrea Carla Winkelmann</t>
         </is>
       </c>
-      <c r="E24" s="3" t="n"/>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F24" s="3" t="n"/>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1259,7 +1340,7 @@
       <c r="H24" s="3" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="inlineStr">
+      <c r="A25" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1277,9 +1358,13 @@
           <t>Lorizete de Andrade</t>
         </is>
       </c>
-      <c r="E25" s="3" t="n"/>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F25" s="3" t="n"/>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1287,7 +1372,7 @@
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="inlineStr">
+      <c r="A26" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1305,9 +1390,13 @@
           <t>Andressa Maia</t>
         </is>
       </c>
-      <c r="E26" s="3" t="n"/>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F26" s="3" t="n"/>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1315,7 +1404,7 @@
       <c r="H26" s="3" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="inlineStr">
+      <c r="A27" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1333,9 +1422,13 @@
           <t>Lucas Correia de Souza</t>
         </is>
       </c>
-      <c r="E27" s="3" t="n"/>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F27" s="3" t="n"/>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1343,7 +1436,7 @@
       <c r="H27" s="3" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="inlineStr">
+      <c r="A28" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1361,7 +1454,7 @@
           <t>Jose Francisco Mariano de Faria Filho</t>
         </is>
       </c>
-      <c r="E28" s="6" t="inlineStr">
+      <c r="E28" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1371,7 +1464,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1379,7 +1472,7 @@
       <c r="H28" s="3" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="inlineStr">
+      <c r="A29" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1397,9 +1490,13 @@
           <t>Pedro Henrique Mariano de Faria</t>
         </is>
       </c>
-      <c r="E29" s="3" t="n"/>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F29" s="3" t="n"/>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1407,7 +1504,7 @@
       <c r="H29" s="3" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="inlineStr">
+      <c r="A30" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1425,7 +1522,7 @@
           <t>Renata Aparecida de Souza</t>
         </is>
       </c>
-      <c r="E30" s="6" t="inlineStr">
+      <c r="E30" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1435,7 +1532,7 @@
           <t>17/03/2025</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1461,9 +1558,13 @@
           <t>Paulo Rogerio Hiroshi Fujii</t>
         </is>
       </c>
-      <c r="E31" s="3" t="n"/>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F31" s="3" t="n"/>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1489,9 +1590,13 @@
           <t>Marlene R. Oliveira Dallacosta</t>
         </is>
       </c>
-      <c r="E32" s="3" t="n"/>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F32" s="3" t="n"/>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1499,7 +1604,7 @@
       <c r="H32" s="3" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1517,9 +1622,13 @@
           <t>Vitolor dos Santos Almeida</t>
         </is>
       </c>
-      <c r="E33" s="3" t="n"/>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F33" s="3" t="n"/>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1527,7 +1636,7 @@
       <c r="H33" s="3" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+      <c r="A34" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1545,7 +1654,7 @@
           <t>Kelly Jackeline Silva do Valle</t>
         </is>
       </c>
-      <c r="E34" s="6" t="inlineStr">
+      <c r="E34" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1555,7 +1664,7 @@
           <t>24/03/2025</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1563,7 +1672,7 @@
       <c r="H34" s="3" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="A35" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1581,9 +1690,13 @@
           <t>Felipe Carvalho Zydek</t>
         </is>
       </c>
-      <c r="E35" s="3" t="n"/>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F35" s="3" t="n"/>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1591,7 +1704,7 @@
       <c r="H35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="inlineStr">
+      <c r="A36" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1609,7 +1722,7 @@
           <t>Eliane Borin</t>
         </is>
       </c>
-      <c r="E36" s="6" t="inlineStr">
+      <c r="E36" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1619,7 +1732,7 @@
           <t>19/03/2025</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1627,7 +1740,7 @@
       <c r="H36" s="3" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="inlineStr">
+      <c r="A37" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1645,9 +1758,13 @@
           <t>Tatiana schrard</t>
         </is>
       </c>
-      <c r="E37" s="3" t="n"/>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F37" s="3" t="n"/>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1655,7 +1772,7 @@
       <c r="H37" s="3" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="inlineStr">
+      <c r="A38" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1673,9 +1790,13 @@
           <t>Francilaine Cavalini de Oliveira</t>
         </is>
       </c>
-      <c r="E38" s="3" t="n"/>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F38" s="3" t="n"/>
-      <c r="G38" s="4" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1683,7 +1804,7 @@
       <c r="H38" s="3" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="inlineStr">
+      <c r="A39" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1701,9 +1822,13 @@
           <t>Ailton Carlos Fialho</t>
         </is>
       </c>
-      <c r="E39" s="3" t="n"/>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F39" s="3" t="n"/>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1711,7 +1836,7 @@
       <c r="H39" s="3" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="inlineStr">
+      <c r="A40" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1725,9 +1850,13 @@
         <v>1</v>
       </c>
       <c r="D40" s="3" t="n"/>
-      <c r="E40" s="3" t="n"/>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F40" s="3" t="n"/>
-      <c r="G40" s="4" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1735,7 +1864,7 @@
       <c r="H40" s="3" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="inlineStr">
+      <c r="A41" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1749,9 +1878,13 @@
         <v>2</v>
       </c>
       <c r="D41" s="3" t="n"/>
-      <c r="E41" s="3" t="n"/>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F41" s="3" t="n"/>
-      <c r="G41" s="4" t="inlineStr">
+      <c r="G41" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1777,9 +1910,13 @@
           <t>Cleiton Manske</t>
         </is>
       </c>
-      <c r="E42" s="3" t="n"/>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F42" s="3" t="n"/>
-      <c r="G42" s="4" t="inlineStr">
+      <c r="G42" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1787,7 +1924,7 @@
       <c r="H42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="10" t="inlineStr">
+      <c r="A43" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1805,9 +1942,13 @@
           <t>Alexandro Aparecido de Lima Vieira</t>
         </is>
       </c>
-      <c r="E43" s="3" t="n"/>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F43" s="3" t="n"/>
-      <c r="G43" s="4" t="inlineStr">
+      <c r="G43" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1815,7 +1956,7 @@
       <c r="H43" s="3" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="10" t="inlineStr">
+      <c r="A44" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1833,9 +1974,13 @@
           <t>Natielly Pereira Ochoa</t>
         </is>
       </c>
-      <c r="E44" s="3" t="n"/>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F44" s="3" t="n"/>
-      <c r="G44" s="4" t="inlineStr">
+      <c r="G44" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1861,9 +2006,13 @@
           <t>Roberto Pedron</t>
         </is>
       </c>
-      <c r="E45" s="3" t="n"/>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F45" s="3" t="n"/>
-      <c r="G45" s="4" t="inlineStr">
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1871,7 +2020,7 @@
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="inlineStr">
+      <c r="A46" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1889,7 +2038,7 @@
           <t>Luciane Spies</t>
         </is>
       </c>
-      <c r="E46" s="6" t="inlineStr">
+      <c r="E46" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1899,7 +2048,7 @@
           <t>11/03/2025</t>
         </is>
       </c>
-      <c r="G46" s="9" t="inlineStr">
+      <c r="G46" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1925,9 +2074,13 @@
           <t>Jaqueline Fernanda Meireles</t>
         </is>
       </c>
-      <c r="E47" s="3" t="n"/>
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F47" s="3" t="n"/>
-      <c r="G47" s="4" t="inlineStr">
+      <c r="G47" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1935,7 +2088,7 @@
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="inlineStr">
+      <c r="A48" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1953,9 +2106,13 @@
           <t>Luiz Fernando Pereira Barbosa</t>
         </is>
       </c>
-      <c r="E48" s="3" t="n"/>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F48" s="3" t="n"/>
-      <c r="G48" s="4" t="inlineStr">
+      <c r="G48" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1981,9 +2138,13 @@
           <t>Carolina Eggers</t>
         </is>
       </c>
-      <c r="E49" s="3" t="n"/>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F49" s="3" t="n"/>
-      <c r="G49" s="4" t="inlineStr">
+      <c r="G49" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2009,9 +2170,13 @@
           <t>Gabriela Carvalho</t>
         </is>
       </c>
-      <c r="E50" s="3" t="n"/>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F50" s="3" t="n"/>
-      <c r="G50" s="4" t="inlineStr">
+      <c r="G50" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2037,9 +2202,13 @@
           <t>Dorival Manoel Canhete</t>
         </is>
       </c>
-      <c r="E51" s="3" t="n"/>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F51" s="3" t="n"/>
-      <c r="G51" s="4" t="inlineStr">
+      <c r="G51" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2047,7 +2216,7 @@
       <c r="H51" s="3" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="inlineStr">
+      <c r="A52" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2065,7 +2234,7 @@
           <t>Jaqueline Vanelli</t>
         </is>
       </c>
-      <c r="E52" s="6" t="inlineStr">
+      <c r="E52" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2075,7 +2244,7 @@
           <t>12/03/2025</t>
         </is>
       </c>
-      <c r="G52" s="9" t="inlineStr">
+      <c r="G52" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2101,9 +2270,13 @@
           <t>Fernanda Jung</t>
         </is>
       </c>
-      <c r="E53" s="3" t="n"/>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F53" s="3" t="n"/>
-      <c r="G53" s="4" t="inlineStr">
+      <c r="G53" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2111,7 +2284,7 @@
       <c r="H53" s="3" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="inlineStr">
+      <c r="A54" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2129,9 +2302,13 @@
           <t>Ana Paula Romagnoli</t>
         </is>
       </c>
-      <c r="E54" s="3" t="n"/>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F54" s="3" t="n"/>
-      <c r="G54" s="4" t="inlineStr">
+      <c r="G54" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2139,7 +2316,7 @@
       <c r="H54" s="3" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="inlineStr">
+      <c r="A55" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2157,9 +2334,13 @@
           <t>Isabel Caroline Fruhling</t>
         </is>
       </c>
-      <c r="E55" s="3" t="n"/>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F55" s="3" t="n"/>
-      <c r="G55" s="4" t="inlineStr">
+      <c r="G55" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2167,7 +2348,7 @@
       <c r="H55" s="3" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="inlineStr">
+      <c r="A56" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2185,9 +2366,13 @@
           <t>Marina Ancelmo da Silva</t>
         </is>
       </c>
-      <c r="E56" s="3" t="n"/>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F56" s="3" t="n"/>
-      <c r="G56" s="4" t="inlineStr">
+      <c r="G56" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2195,7 +2380,7 @@
       <c r="H56" s="3" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="inlineStr">
+      <c r="A57" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2213,7 +2398,7 @@
           <t>Ana Carolina Peterle Ribeiro</t>
         </is>
       </c>
-      <c r="E57" s="6" t="inlineStr">
+      <c r="E57" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2223,7 +2408,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G57" s="9" t="inlineStr">
+      <c r="G57" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2231,7 +2416,7 @@
       <c r="H57" s="3" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="10" t="inlineStr">
+      <c r="A58" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2249,9 +2434,13 @@
           <t>Taiane Amélia Mondardo</t>
         </is>
       </c>
-      <c r="E58" s="3" t="n"/>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F58" s="3" t="n"/>
-      <c r="G58" s="4" t="inlineStr">
+      <c r="G58" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2259,7 +2448,7 @@
       <c r="H58" s="3" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="inlineStr">
+      <c r="A59" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2277,7 +2466,7 @@
           <t>Adnan navarro de freitas kassim</t>
         </is>
       </c>
-      <c r="E59" s="6" t="inlineStr">
+      <c r="E59" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2287,7 +2476,7 @@
           <t>10/03/2025</t>
         </is>
       </c>
-      <c r="G59" s="9" t="inlineStr">
+      <c r="G59" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2295,7 +2484,7 @@
       <c r="H59" s="3" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="10" t="inlineStr">
+      <c r="A60" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2313,9 +2502,13 @@
           <t>Andryws Rafael Gois</t>
         </is>
       </c>
-      <c r="E60" s="3" t="n"/>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F60" s="3" t="n"/>
-      <c r="G60" s="4" t="inlineStr">
+      <c r="G60" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2323,7 +2516,7 @@
       <c r="H60" s="3" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="inlineStr">
+      <c r="A61" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2341,9 +2534,13 @@
           <t>Mayara Ketllyn de Paula Rosetti</t>
         </is>
       </c>
-      <c r="E61" s="3" t="n"/>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F61" s="3" t="n"/>
-      <c r="G61" s="4" t="inlineStr">
+      <c r="G61" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2351,7 +2548,7 @@
       <c r="H61" s="3" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="10" t="inlineStr">
+      <c r="A62" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2369,9 +2566,13 @@
           <t>Junior Andre Britzke</t>
         </is>
       </c>
-      <c r="E62" s="3" t="n"/>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F62" s="3" t="n"/>
-      <c r="G62" s="4" t="inlineStr">
+      <c r="G62" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2397,9 +2598,13 @@
           <t>Adriano Pereira Guedes</t>
         </is>
       </c>
-      <c r="E63" s="3" t="n"/>
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F63" s="3" t="n"/>
-      <c r="G63" s="4" t="inlineStr">
+      <c r="G63" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2425,7 +2630,7 @@
           <t xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </t>
         </is>
       </c>
-      <c r="E64" s="6" t="inlineStr">
+      <c r="E64" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2435,7 +2640,7 @@
           <t>24/03/2025</t>
         </is>
       </c>
-      <c r="G64" s="4" t="inlineStr">
+      <c r="G64" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2443,7 +2648,7 @@
       <c r="H64" s="3" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="inlineStr">
+      <c r="A65" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2461,7 +2666,7 @@
           <t>Alice Cristiane Zancheta</t>
         </is>
       </c>
-      <c r="E65" s="6" t="inlineStr">
+      <c r="E65" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2471,7 +2676,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G65" s="4" t="inlineStr">
+      <c r="G65" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2479,7 +2684,7 @@
       <c r="H65" s="3" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="inlineStr">
+      <c r="A66" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -2497,7 +2702,7 @@
           <t>Fernanda kaezer de Godoy</t>
         </is>
       </c>
-      <c r="E66" s="6" t="inlineStr">
+      <c r="E66" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2507,7 +2712,7 @@
           <t>26/02/2025</t>
         </is>
       </c>
-      <c r="G66" s="4" t="inlineStr">
+      <c r="G66" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2515,7 +2720,7 @@
       <c r="H66" s="3" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="inlineStr">
+      <c r="A67" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -2533,9 +2738,13 @@
           <t xml:space="preserve">Ademir Papini Júnior </t>
         </is>
       </c>
-      <c r="E67" s="3" t="n"/>
+      <c r="E67" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F67" s="3" t="n"/>
-      <c r="G67" s="4" t="inlineStr">
+      <c r="G67" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2543,7 +2752,7 @@
       <c r="H67" s="3" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="inlineStr">
+      <c r="A68" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2561,9 +2770,13 @@
           <t>Heloísa Maria Beloni Insenha</t>
         </is>
       </c>
-      <c r="E68" s="3" t="n"/>
+      <c r="E68" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F68" s="3" t="n"/>
-      <c r="G68" s="4" t="inlineStr">
+      <c r="G68" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>

--- a/form3/grs_atualizado_form3.xlsx
+++ b/form3/grs_atualizado_form3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="grs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41,7 +41,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -108,6 +108,12 @@
         <bgColor rgb="00006400"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A020F0"/>
+        <bgColor rgb="00A020F0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -135,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -159,6 +165,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -874,7 +883,7 @@
           <t>Tatiane Girardi</t>
         </is>
       </c>
-      <c r="E10" s="7" t="inlineStr">
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>Envio Duplicado</t>
         </is>
@@ -1112,7 +1121,7 @@
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="inlineStr">
+      <c r="A18" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1176,7 +1185,7 @@
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="inlineStr">
+      <c r="A20" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1204,7 +1213,7 @@
           <t>19/03/2025</t>
         </is>
       </c>
-      <c r="G20" s="10" t="inlineStr">
+      <c r="G20" s="11" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1248,7 +1257,7 @@
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="inlineStr">
+      <c r="A22" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1308,7 +1317,7 @@
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="inlineStr">
+      <c r="A24" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1340,7 +1349,7 @@
       <c r="H24" s="3" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="inlineStr">
+      <c r="A25" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1372,7 +1381,7 @@
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="inlineStr">
+      <c r="A26" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1404,7 +1413,7 @@
       <c r="H26" s="3" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="inlineStr">
+      <c r="A27" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1436,7 +1445,7 @@
       <c r="H27" s="3" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="inlineStr">
+      <c r="A28" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1472,7 +1481,7 @@
       <c r="H28" s="3" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="inlineStr">
+      <c r="A29" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1504,7 +1513,7 @@
       <c r="H29" s="3" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="inlineStr">
+      <c r="A30" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1740,7 +1749,7 @@
       <c r="H36" s="3" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="inlineStr">
+      <c r="A37" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1836,7 +1845,7 @@
       <c r="H39" s="3" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="inlineStr">
+      <c r="A40" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1864,7 +1873,7 @@
       <c r="H40" s="3" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="9" t="inlineStr">
+      <c r="A41" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1924,7 +1933,7 @@
       <c r="H42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="inlineStr">
+      <c r="A43" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1956,7 +1965,7 @@
       <c r="H43" s="3" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="inlineStr">
+      <c r="A44" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2020,7 +2029,7 @@
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="9" t="inlineStr">
+      <c r="A46" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2048,7 +2057,7 @@
           <t>11/03/2025</t>
         </is>
       </c>
-      <c r="G46" s="10" t="inlineStr">
+      <c r="G46" s="11" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2216,7 +2225,7 @@
       <c r="H51" s="3" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="9" t="inlineStr">
+      <c r="A52" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2244,7 +2253,7 @@
           <t>12/03/2025</t>
         </is>
       </c>
-      <c r="G52" s="10" t="inlineStr">
+      <c r="G52" s="11" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2284,7 +2293,7 @@
       <c r="H53" s="3" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="inlineStr">
+      <c r="A54" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2316,7 +2325,7 @@
       <c r="H54" s="3" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="inlineStr">
+      <c r="A55" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2380,7 +2389,7 @@
       <c r="H56" s="3" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="inlineStr">
+      <c r="A57" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2408,7 +2417,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G57" s="10" t="inlineStr">
+      <c r="G57" s="11" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2416,7 +2425,7 @@
       <c r="H57" s="3" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="inlineStr">
+      <c r="A58" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2448,7 +2457,7 @@
       <c r="H58" s="3" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="9" t="inlineStr">
+      <c r="A59" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2476,7 +2485,7 @@
           <t>10/03/2025</t>
         </is>
       </c>
-      <c r="G59" s="10" t="inlineStr">
+      <c r="G59" s="11" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2484,7 +2493,7 @@
       <c r="H59" s="3" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="inlineStr">
+      <c r="A60" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2516,7 +2525,7 @@
       <c r="H60" s="3" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="inlineStr">
+      <c r="A61" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2548,7 +2557,7 @@
       <c r="H61" s="3" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="inlineStr">
+      <c r="A62" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2752,7 +2761,7 @@
       <c r="H67" s="3" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="9" t="inlineStr">
+      <c r="A68" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>

--- a/form3/grs_atualizado_form3.xlsx
+++ b/form3/grs_atualizado_form3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="grs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41,7 +41,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -104,12 +104,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00006400"/>
-        <bgColor rgb="00006400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00A020F0"/>
         <bgColor rgb="00A020F0"/>
       </patternFill>
@@ -141,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -161,13 +155,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -556,8 +547,8 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="51" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="75" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
   </cols>
@@ -655,12 +646,16 @@
           <t>willian de oliveira lino</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="n"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>31/03/2025</t>
+        </is>
+      </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -719,12 +714,16 @@
           <t>Marcos Gabriel Franciosi Borges</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="n"/>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>27/03/2025</t>
+        </is>
+      </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -751,12 +750,16 @@
           <t>Geni Rodrigues da Silva morais</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="n"/>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -783,9 +786,9 @@
           <t>Solange Maria Masqueti</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -801,7 +804,7 @@
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="inlineStr">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -883,9 +886,9 @@
           <t>Tatiane Girardi</t>
         </is>
       </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Envio Duplicado</t>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
@@ -901,7 +904,7 @@
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="inlineStr">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -919,12 +922,16 @@
           <t>Gabriela Fernanda Sandri</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="n"/>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -933,7 +940,7 @@
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="inlineStr">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -951,12 +958,16 @@
           <t>Edson Batista de Castro</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="n"/>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -965,7 +976,7 @@
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="inlineStr">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -997,7 +1008,7 @@
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1015,12 +1026,16 @@
           <t>Kelly Regina linzmeier de Lima</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="n"/>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>10/04/2025, 09/05/2025</t>
+        </is>
+      </c>
       <c r="G14" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1029,7 +1044,7 @@
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="inlineStr">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1043,12 +1058,16 @@
         <v>5</v>
       </c>
       <c r="D15" s="3" t="n"/>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="n"/>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1057,7 +1076,7 @@
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="inlineStr">
+      <c r="A16" s="7" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1103,9 +1122,9 @@
           <t>Cristina Harumi Enokida</t>
         </is>
       </c>
-      <c r="E17" s="7" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
@@ -1121,7 +1140,7 @@
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1185,7 +1204,7 @@
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="inlineStr">
+      <c r="A20" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1203,9 +1222,9 @@
           <t>Bruna Schneider Guimarães</t>
         </is>
       </c>
-      <c r="E20" s="7" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
@@ -1213,7 +1232,7 @@
           <t>19/03/2025</t>
         </is>
       </c>
-      <c r="G20" s="11" t="inlineStr">
+      <c r="G20" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1239,9 +1258,9 @@
           <t>Keilla Avezedo</t>
         </is>
       </c>
-      <c r="E21" s="7" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
@@ -1257,7 +1276,7 @@
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="inlineStr">
+      <c r="A22" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1285,7 +1304,7 @@
       <c r="H22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="inlineStr">
+      <c r="A23" s="7" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1303,12 +1322,16 @@
           <t>thiago varaschim cenci</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="n"/>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1317,7 +1340,7 @@
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="12" t="inlineStr">
+      <c r="A24" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1349,7 +1372,7 @@
       <c r="H24" s="3" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="12" t="inlineStr">
+      <c r="A25" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1367,12 +1390,16 @@
           <t>Lorizete de Andrade</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="n"/>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>16/04/2025</t>
+        </is>
+      </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1381,7 +1408,7 @@
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="12" t="inlineStr">
+      <c r="A26" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1413,7 +1440,7 @@
       <c r="H26" s="3" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="12" t="inlineStr">
+      <c r="A27" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1445,7 +1472,7 @@
       <c r="H27" s="3" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="12" t="inlineStr">
+      <c r="A28" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1463,9 +1490,9 @@
           <t>Jose Francisco Mariano de Faria Filho</t>
         </is>
       </c>
-      <c r="E28" s="7" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
@@ -1481,7 +1508,7 @@
       <c r="H28" s="3" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="12" t="inlineStr">
+      <c r="A29" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1499,12 +1526,16 @@
           <t>Pedro Henrique Mariano de Faria</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F29" s="3" t="n"/>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1513,7 +1544,7 @@
       <c r="H29" s="3" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="12" t="inlineStr">
+      <c r="A30" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1531,9 +1562,9 @@
           <t>Renata Aparecida de Souza</t>
         </is>
       </c>
-      <c r="E30" s="7" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
@@ -1631,12 +1662,16 @@
           <t>Vitolor dos Santos Almeida</t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F33" s="3" t="n"/>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>08/04/2025</t>
+        </is>
+      </c>
       <c r="G33" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1663,9 +1698,9 @@
           <t>Kelly Jackeline Silva do Valle</t>
         </is>
       </c>
-      <c r="E34" s="7" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
@@ -1699,12 +1734,16 @@
           <t>Felipe Carvalho Zydek</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F35" s="3" t="n"/>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>02/04/2025</t>
+        </is>
+      </c>
       <c r="G35" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1713,7 +1752,7 @@
       <c r="H35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="inlineStr">
+      <c r="A36" s="7" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1731,9 +1770,9 @@
           <t>Eliane Borin</t>
         </is>
       </c>
-      <c r="E36" s="7" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
@@ -1749,7 +1788,7 @@
       <c r="H36" s="3" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="10" t="inlineStr">
+      <c r="A37" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1767,12 +1806,16 @@
           <t>Tatiana schrard</t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F37" s="3" t="n"/>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>08/04/2025</t>
+        </is>
+      </c>
       <c r="G37" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1781,7 +1824,7 @@
       <c r="H37" s="3" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="inlineStr">
+      <c r="A38" s="7" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1845,7 +1888,7 @@
       <c r="H39" s="3" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="10" t="inlineStr">
+      <c r="A40" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1859,12 +1902,16 @@
         <v>1</v>
       </c>
       <c r="D40" s="3" t="n"/>
-      <c r="E40" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F40" s="3" t="n"/>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
       <c r="G40" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1873,7 +1920,7 @@
       <c r="H40" s="3" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="10" t="inlineStr">
+      <c r="A41" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1887,12 +1934,16 @@
         <v>2</v>
       </c>
       <c r="D41" s="3" t="n"/>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F41" s="3" t="n"/>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
       <c r="G41" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1933,7 +1984,7 @@
       <c r="H42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="12" t="inlineStr">
+      <c r="A43" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1951,12 +2002,16 @@
           <t>Alexandro Aparecido de Lima Vieira</t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F43" s="3" t="n"/>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>02/04/2025</t>
+        </is>
+      </c>
       <c r="G43" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1965,7 +2020,7 @@
       <c r="H43" s="3" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="12" t="inlineStr">
+      <c r="A44" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1983,12 +2038,16 @@
           <t>Natielly Pereira Ochoa</t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F44" s="3" t="n"/>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
       <c r="G44" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2029,7 +2088,7 @@
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="10" t="inlineStr">
+      <c r="A46" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2047,9 +2106,9 @@
           <t>Luciane Spies</t>
         </is>
       </c>
-      <c r="E46" s="7" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
@@ -2057,7 +2116,7 @@
           <t>11/03/2025</t>
         </is>
       </c>
-      <c r="G46" s="11" t="inlineStr">
+      <c r="G46" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2097,7 +2156,7 @@
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="inlineStr">
+      <c r="A48" s="7" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -2115,12 +2174,16 @@
           <t>Luiz Fernando Pereira Barbosa</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F48" s="3" t="n"/>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>16/04/2025</t>
+        </is>
+      </c>
       <c r="G48" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2147,12 +2210,16 @@
           <t>Carolina Eggers</t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F49" s="3" t="n"/>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
       <c r="G49" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2179,12 +2246,16 @@
           <t>Gabriela Carvalho</t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F50" s="3" t="n"/>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>27/03/2025</t>
+        </is>
+      </c>
       <c r="G50" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2225,7 +2296,7 @@
       <c r="H51" s="3" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="10" t="inlineStr">
+      <c r="A52" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2243,9 +2314,9 @@
           <t>Jaqueline Vanelli</t>
         </is>
       </c>
-      <c r="E52" s="7" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
@@ -2253,7 +2324,7 @@
           <t>12/03/2025</t>
         </is>
       </c>
-      <c r="G52" s="11" t="inlineStr">
+      <c r="G52" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2279,12 +2350,16 @@
           <t>Fernanda Jung</t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F53" s="3" t="n"/>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
       <c r="G53" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2293,7 +2368,7 @@
       <c r="H53" s="3" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="10" t="inlineStr">
+      <c r="A54" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2325,7 +2400,7 @@
       <c r="H54" s="3" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="10" t="inlineStr">
+      <c r="A55" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2389,7 +2464,7 @@
       <c r="H56" s="3" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="10" t="inlineStr">
+      <c r="A57" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2407,9 +2482,9 @@
           <t>Ana Carolina Peterle Ribeiro</t>
         </is>
       </c>
-      <c r="E57" s="7" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
@@ -2417,7 +2492,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G57" s="11" t="inlineStr">
+      <c r="G57" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2425,7 +2500,7 @@
       <c r="H57" s="3" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="12" t="inlineStr">
+      <c r="A58" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2457,7 +2532,7 @@
       <c r="H58" s="3" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="10" t="inlineStr">
+      <c r="A59" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2475,9 +2550,9 @@
           <t>Adnan navarro de freitas kassim</t>
         </is>
       </c>
-      <c r="E59" s="7" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
@@ -2485,7 +2560,7 @@
           <t>10/03/2025</t>
         </is>
       </c>
-      <c r="G59" s="11" t="inlineStr">
+      <c r="G59" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2493,7 +2568,7 @@
       <c r="H59" s="3" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="12" t="inlineStr">
+      <c r="A60" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2511,12 +2586,16 @@
           <t>Andryws Rafael Gois</t>
         </is>
       </c>
-      <c r="E60" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F60" s="3" t="n"/>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
       <c r="G60" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2525,7 +2604,7 @@
       <c r="H60" s="3" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="10" t="inlineStr">
+      <c r="A61" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2543,12 +2622,16 @@
           <t>Mayara Ketllyn de Paula Rosetti</t>
         </is>
       </c>
-      <c r="E61" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F61" s="3" t="n"/>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
       <c r="G61" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2557,7 +2640,7 @@
       <c r="H61" s="3" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="12" t="inlineStr">
+      <c r="A62" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2575,12 +2658,16 @@
           <t>Junior Andre Britzke</t>
         </is>
       </c>
-      <c r="E62" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F62" s="3" t="n"/>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>08/04/2025</t>
+        </is>
+      </c>
       <c r="G62" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2607,12 +2694,16 @@
           <t>Adriano Pereira Guedes</t>
         </is>
       </c>
-      <c r="E63" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F63" s="3" t="n"/>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>04/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 12/05/2025</t>
+        </is>
+      </c>
       <c r="G63" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2639,9 +2730,9 @@
           <t xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </t>
         </is>
       </c>
-      <c r="E64" s="7" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
@@ -2675,9 +2766,9 @@
           <t>Alice Cristiane Zancheta</t>
         </is>
       </c>
-      <c r="E65" s="7" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
@@ -2693,7 +2784,7 @@
       <c r="H65" s="3" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="8" t="inlineStr">
+      <c r="A66" s="7" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -2711,9 +2802,9 @@
           <t>Fernanda kaezer de Godoy</t>
         </is>
       </c>
-      <c r="E66" s="7" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
@@ -2729,7 +2820,7 @@
       <c r="H66" s="3" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="inlineStr">
+      <c r="A67" s="7" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -2761,7 +2852,7 @@
       <c r="H67" s="3" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="10" t="inlineStr">
+      <c r="A68" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
